--- a/Labs/Lab05-Async/Lab5Rubric-Async.xlsx
+++ b/Labs/Lab05-Async/Lab5Rubric-Async.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab05-Async\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7B9E23-D0DE-4C53-9764-5D4178BA93C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FE445C-C91B-4D9B-A6C5-F7142AEB5D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33792" yWindow="4560" windowWidth="11688" windowHeight="10992" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="-17424" yWindow="5592" windowWidth="14388" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A5EE8C-E354-4001-86CD-B2CD9C47B920}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -563,14 +563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.69921875" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" customWidth="1"/>
     <col min="3" max="3" width="7.8984375" customWidth="1"/>
     <col min="4" max="4" width="6.59765625" customWidth="1"/>
     <col min="5" max="5" width="17.796875" customWidth="1"/>
